--- a/biology/Botanique/Rhopalodiaceae/Rhopalodiaceae.xlsx
+++ b/biology/Botanique/Rhopalodiaceae/Rhopalodiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhopalodiaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Rhopalodiales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Rhopalodia, dérivé du grec  ῥόπαλον / rópalon, massue, en référence à la forme de la diatomée « club-to pear-shaped », c'est-à-dire dont la forme varie entre une massue et une poire[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Rhopalodia, dérivé du grec  ῥόπαλον / rópalon, massue, en référence à la forme de la diatomée « club-to pear-shaped », c'est-à-dire dont la forme varie entre une massue et une poire. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (12 juin 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (12 juin 2022) :
 Cystopleura Brébisson ex Kuntze, 1891
 Epithemia Kützing, 1844
 Katahiraia S.Komura, 1976
@@ -581,9 +597,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Rhopalodiaceae a été créée en 1960 par les phycologues ukrainiens Aleksandr Viktorovitsj Topatsjevskiy (d) (1897-1975) et O. P. Oksiyuk (d) (fl. 1960)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Rhopalodiaceae a été créée en 1960 par les phycologues ukrainiens Aleksandr Viktorovitsj Topatsjevskiy (d) (1897-1975) et O. P. Oksiyuk (d) (fl. 1960).
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(uk) A.V. Topachevs'kyj et O.P. Oksiyuk, Vyznachnyk prisnovodnykh vodorostei Ukrayinskoyi RSR. Vol. 11 Diatomovi vodorosti Bacillariophyta (Diatomeae) [« Clés d'identification des algues d'eau douce de la RSS d'Ukraine. Vol. 11 Diatomées Bacillariophyta (Diatomeae) »], Kiev, Fondation de l'Académie des sciences de la RSS d'Ukraine, 1960, [1]-412.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(uk) A.V. Topachevs'kyj et O.P. Oksiyuk, Vyznachnyk prisnovodnykh vodorostei Ukrayinskoyi RSR. Vol. 11 Diatomovi vodorosti Bacillariophyta (Diatomeae) [« Clés d'identification des algues d'eau douce de la RSS d'Ukraine. Vol. 11 Diatomées Bacillariophyta (Diatomeae) »], Kiev, Fondation de l'Académie des sciences de la RSS d'Ukraine, 1960, -412.</t>
         </is>
       </c>
     </row>
